--- a/parsed_output.xlsx
+++ b/parsed_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,83 +436,462 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Parsed Data</t>
+          <t xml:space="preserve"> Model </t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Operating Weight </t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bucket Capacity (SAE HEaped) </t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Engine Power (SAE j1349, net) </t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Here is the extracted information in a table format:</t>
+          <t xml:space="preserve"> --- </t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> --- </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> --- </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> --- </t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DX210W-7B </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20,100 kg </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.86 m³ </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 121 kW (165 PS, 163 HP) @2,000 rpm </t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>| Model | Operating Weight | Bucket Capacity | Engine Power |</t>
+          <t xml:space="preserve"> DX150W-7B </t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13,520 kg </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.76 m³ </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 100 kW (136 PS) @ 2,000 rpm </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>| --- | --- | --- | --- |</t>
+          <t xml:space="preserve"> DX160W </t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.24 m³ </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99kW(132HP) @ 2,000 rpm </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>| DX210W-7B | 20,100 kg | 0.86 ㎥ | 121 kW (165 PS, 163 HP) @2,000 rpm |</t>
+          <t xml:space="preserve"> DX140W </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.24 m³ </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99kW(132HP) @ 2,000 rpm </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>| DX150W-7B | 13,520 kg | 0.76 ㎥ | 100 kW (136 PS) @ 2,000 rpm |</t>
+          <t xml:space="preserve"> DX190W-7 </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 18,320 kg </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.8 m³ </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 121/1,900 kW/rpm </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>| DX160W | - | 0.24 m3 | 99kW(132HP) @ 2,000 rpm |</t>
+          <t xml:space="preserve"> DX190WA </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 18.5~19.86 ton </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.76~0.8 m³ </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 116/1,900 kW/rpm </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>| DX140W | - | 0.24 m3 | 99kW(132HP) @ 2,000 rpm |</t>
+          <t xml:space="preserve"> DX350LC-7K </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 209.1/1,800 kW/rpm </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>| DX190W-7 | 18,320 kg | 0.8 m³ | 121/1,900 kW/rpm |</t>
+          <t xml:space="preserve"> DX380LC-7K </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 40.2 ton </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.25 – 2.32 m³ </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 236.1 kW @ 1,800 rpm </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>| DX190WA | 18.5~19.86 ton | 0.76~0.8 m³ | 116/1,900 kW/rpm |</t>
+          <t xml:space="preserve"> DX360LCA-7M </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 37.6 ton </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.25~1.83 m³ </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 233/1,800 kW/rpm </t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DX490LC-7B </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 294 kW / 2,100 rpm </t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Let me know if this meets your requirements!</t>
+          <t xml:space="preserve"> DX530LC-7K </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 50.6 ton </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.14 m3 </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 289 kW (387.6 hp) </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DX530LC-7B </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 294 kW / 2,100 rpm </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DX350LC-7M </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 209.1/1,800 kW/rpm </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DX380LCA-7K </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 40.8 ton </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.25 – 2.32 m³ </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 236.1 kW @ 1,800 rpm </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DX360LCA-7B </t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 233/1,800 kW/rpm </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DX210W </t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20.1 ton </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.86 m³ </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 121 kW (165 PS, 163 HP) @2,000 rpm </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DX190W </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 18.5 ton </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.8 m³ </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 121/1,900 kW/rpm </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DX150W </t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13.5 ton </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.76 m³ </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 100 kW (136 PS) @ 2,000 rpm </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DX160WA </t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.24 m³ </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99kW(132HP) @ 2,000 rpm </t>
         </is>
       </c>
     </row>
